--- a/results/mp/tinybert/home-spam/confidence/84/stop-words-topk-0.35/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/84/stop-words-topk-0.35/avg_0.004_scores.xlsx
@@ -49,136 +49,139 @@
     <t>loves</t>
   </si>
   <si>
+    <t>awesome</t>
+  </si>
+  <si>
+    <t>excellent</t>
+  </si>
+  <si>
     <t>wonderful</t>
   </si>
   <si>
-    <t>excellent</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
-    <t>awesome</t>
-  </si>
-  <si>
     <t>pleased</t>
   </si>
   <si>
+    <t>beautiful</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
     <t>salad</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>husband</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>ever</t>
+  </si>
+  <si>
+    <t>cooke</t>
+  </si>
+  <si>
+    <t>sturdy</t>
+  </si>
+  <si>
     <t>cakes</t>
   </si>
   <si>
-    <t>beautiful</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>daughter</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>cooke</t>
-  </si>
-  <si>
-    <t>husband</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>wife</t>
+    <t>bread</t>
   </si>
   <si>
     <t>cheese</t>
   </si>
   <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>ever</t>
-  </si>
-  <si>
-    <t>sturdy</t>
-  </si>
-  <si>
     <t>potatoes</t>
   </si>
   <si>
-    <t>ze</t>
-  </si>
-  <si>
     <t>gift</t>
   </si>
   <si>
+    <t>perfectly</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
     <t>years</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
     <t>easy</t>
   </si>
   <si>
+    <t>old</t>
+  </si>
+  <si>
     <t>cooking</t>
   </si>
   <si>
-    <t>old</t>
+    <t>tea</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>kitchen</t>
+  </si>
+  <si>
+    <t>pan</t>
   </si>
   <si>
     <t>keeps</t>
   </si>
   <si>
-    <t>tea</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>kitchen</t>
-  </si>
-  <si>
-    <t>pan</t>
+    <t>works</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
-    <t>works</t>
-  </si>
-  <si>
-    <t>hot</t>
-  </si>
-  <si>
     <t>bought</t>
   </si>
   <si>
+    <t>recommend</t>
+  </si>
+  <si>
     <t>coffee</t>
   </si>
   <si>
     <t>little</t>
   </si>
   <si>
-    <t>recommend</t>
+    <t>makes</t>
   </si>
   <si>
     <t>clean</t>
@@ -187,16 +190,13 @@
     <t>quality</t>
   </si>
   <si>
+    <t>like</t>
+  </si>
+  <si>
     <t>really</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
     <t>one</t>
-  </si>
-  <si>
-    <t>time</t>
   </si>
   <si>
     <t>use</t>
@@ -629,13 +629,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.2790697674418605</v>
+        <v>0.3410852713178295</v>
       </c>
       <c r="C3">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D3">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -647,19 +647,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K3">
-        <v>0.956989247311828</v>
+        <v>0.946236559139785</v>
       </c>
       <c r="L3">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M3">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -671,7 +671,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -679,13 +679,13 @@
         <v>11</v>
       </c>
       <c r="K4">
-        <v>0.8695652173913043</v>
+        <v>0.8478260869565217</v>
       </c>
       <c r="L4">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="M4">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -697,7 +697,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -705,13 +705,13 @@
         <v>12</v>
       </c>
       <c r="K5">
-        <v>0.8671875</v>
+        <v>0.84375</v>
       </c>
       <c r="L5">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="M5">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -723,7 +723,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -731,13 +731,13 @@
         <v>13</v>
       </c>
       <c r="K6">
-        <v>0.8297213622291022</v>
+        <v>0.8405797101449275</v>
       </c>
       <c r="L6">
-        <v>536</v>
+        <v>58</v>
       </c>
       <c r="M6">
-        <v>536</v>
+        <v>58</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -749,7 +749,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>110</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -757,13 +757,13 @@
         <v>14</v>
       </c>
       <c r="K7">
-        <v>0.7608695652173914</v>
+        <v>0.8188854489164087</v>
       </c>
       <c r="L7">
-        <v>35</v>
+        <v>529</v>
       </c>
       <c r="M7">
-        <v>35</v>
+        <v>529</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -775,7 +775,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>11</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -783,13 +783,13 @@
         <v>15</v>
       </c>
       <c r="K8">
-        <v>0.7532467532467533</v>
+        <v>0.7922077922077922</v>
       </c>
       <c r="L8">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M8">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -801,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -809,13 +809,13 @@
         <v>16</v>
       </c>
       <c r="K9">
-        <v>0.7186147186147186</v>
+        <v>0.7045454545454546</v>
       </c>
       <c r="L9">
-        <v>166</v>
+        <v>31</v>
       </c>
       <c r="M9">
-        <v>166</v>
+        <v>31</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>65</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -835,13 +835,13 @@
         <v>17</v>
       </c>
       <c r="K10">
-        <v>0.6986301369863014</v>
+        <v>0.6926406926406926</v>
       </c>
       <c r="L10">
-        <v>51</v>
+        <v>160</v>
       </c>
       <c r="M10">
-        <v>51</v>
+        <v>160</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -853,7 +853,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>22</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -861,13 +861,13 @@
         <v>18</v>
       </c>
       <c r="K11">
-        <v>0.6875</v>
+        <v>0.6888888888888889</v>
       </c>
       <c r="L11">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="M11">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -887,13 +887,13 @@
         <v>19</v>
       </c>
       <c r="K12">
-        <v>0.6818181818181818</v>
+        <v>0.688135593220339</v>
       </c>
       <c r="L12">
-        <v>30</v>
+        <v>203</v>
       </c>
       <c r="M12">
-        <v>30</v>
+        <v>203</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -905,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>14</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -913,13 +913,13 @@
         <v>20</v>
       </c>
       <c r="K13">
-        <v>0.6576271186440678</v>
+        <v>0.6575342465753424</v>
       </c>
       <c r="L13">
-        <v>194</v>
+        <v>48</v>
       </c>
       <c r="M13">
-        <v>194</v>
+        <v>48</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -931,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>101</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -939,13 +939,13 @@
         <v>21</v>
       </c>
       <c r="K14">
-        <v>0.6571428571428571</v>
+        <v>0.6420545746388443</v>
       </c>
       <c r="L14">
-        <v>46</v>
+        <v>800</v>
       </c>
       <c r="M14">
-        <v>46</v>
+        <v>800</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -957,7 +957,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>24</v>
+        <v>446</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -965,13 +965,13 @@
         <v>22</v>
       </c>
       <c r="K15">
-        <v>0.6396468699839486</v>
+        <v>0.6338028169014085</v>
       </c>
       <c r="L15">
-        <v>797</v>
+        <v>45</v>
       </c>
       <c r="M15">
-        <v>797</v>
+        <v>45</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -983,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>449</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -991,13 +991,13 @@
         <v>23</v>
       </c>
       <c r="K16">
-        <v>0.6323529411764706</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="L16">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M16">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1017,13 +1017,13 @@
         <v>24</v>
       </c>
       <c r="K17">
-        <v>0.6</v>
+        <v>0.5964912280701754</v>
       </c>
       <c r="L17">
-        <v>105</v>
+        <v>34</v>
       </c>
       <c r="M17">
-        <v>105</v>
+        <v>34</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1035,7 +1035,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>70</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1043,13 +1043,13 @@
         <v>25</v>
       </c>
       <c r="K18">
-        <v>0.5774647887323944</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="L18">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M18">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1061,7 +1061,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1069,13 +1069,13 @@
         <v>26</v>
       </c>
       <c r="K19">
-        <v>0.5726495726495726</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L19">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="M19">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1087,7 +1087,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1095,13 +1095,13 @@
         <v>27</v>
       </c>
       <c r="K20">
-        <v>0.543859649122807</v>
+        <v>0.5657142857142857</v>
       </c>
       <c r="L20">
-        <v>31</v>
+        <v>99</v>
       </c>
       <c r="M20">
-        <v>31</v>
+        <v>99</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>26</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1121,13 +1121,13 @@
         <v>28</v>
       </c>
       <c r="K21">
-        <v>0.5384615384615384</v>
+        <v>0.5480769230769231</v>
       </c>
       <c r="L21">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="M21">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>30</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1147,13 +1147,13 @@
         <v>29</v>
       </c>
       <c r="K22">
-        <v>0.5277777777777778</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L22">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="M22">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1173,13 +1173,13 @@
         <v>30</v>
       </c>
       <c r="K23">
-        <v>0.5180722891566265</v>
+        <v>0.5112781954887218</v>
       </c>
       <c r="L23">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="M23">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1191,7 +1191,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>40</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1199,13 +1199,13 @@
         <v>31</v>
       </c>
       <c r="K24">
-        <v>0.51</v>
+        <v>0.5042735042735043</v>
       </c>
       <c r="L24">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="M24">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1217,7 +1217,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>49</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1225,13 +1225,13 @@
         <v>32</v>
       </c>
       <c r="K25">
-        <v>0.5096153846153846</v>
+        <v>0.5029940119760479</v>
       </c>
       <c r="L25">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="M25">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1243,7 +1243,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>51</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1251,13 +1251,13 @@
         <v>33</v>
       </c>
       <c r="K26">
-        <v>0.5037593984962406</v>
+        <v>0.5</v>
       </c>
       <c r="L26">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="M26">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1269,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>66</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1277,13 +1277,13 @@
         <v>34</v>
       </c>
       <c r="K27">
-        <v>0.4910179640718563</v>
+        <v>0.47</v>
       </c>
       <c r="L27">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="M27">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1295,7 +1295,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>85</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1303,13 +1303,13 @@
         <v>35</v>
       </c>
       <c r="K28">
-        <v>0.4761904761904762</v>
+        <v>0.4698795180722892</v>
       </c>
       <c r="L28">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="M28">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1321,7 +1321,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1329,13 +1329,13 @@
         <v>36</v>
       </c>
       <c r="K29">
-        <v>0.4444444444444444</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="L29">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="M29">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1355,13 +1355,13 @@
         <v>37</v>
       </c>
       <c r="K30">
-        <v>0.4156626506024096</v>
+        <v>0.4578313253012048</v>
       </c>
       <c r="L30">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="M30">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1373,7 +1373,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1381,13 +1381,13 @@
         <v>38</v>
       </c>
       <c r="K31">
-        <v>0.3735408560311284</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="L31">
-        <v>96</v>
+        <v>32</v>
       </c>
       <c r="M31">
-        <v>96</v>
+        <v>32</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1399,7 +1399,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>161</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1407,13 +1407,13 @@
         <v>39</v>
       </c>
       <c r="K32">
-        <v>0.3627450980392157</v>
+        <v>0.392156862745098</v>
       </c>
       <c r="L32">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="M32">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1425,7 +1425,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>260</v>
+        <v>248</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1433,13 +1433,13 @@
         <v>40</v>
       </c>
       <c r="K33">
-        <v>0.3438356164383561</v>
+        <v>0.377431906614786</v>
       </c>
       <c r="L33">
-        <v>251</v>
+        <v>97</v>
       </c>
       <c r="M33">
-        <v>251</v>
+        <v>97</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1451,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>479</v>
+        <v>160</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1459,13 +1459,13 @@
         <v>41</v>
       </c>
       <c r="K34">
-        <v>0.3243243243243243</v>
+        <v>0.3493150684931507</v>
       </c>
       <c r="L34">
-        <v>36</v>
+        <v>255</v>
       </c>
       <c r="M34">
-        <v>36</v>
+        <v>255</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1477,7 +1477,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>75</v>
+        <v>475</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1485,13 +1485,13 @@
         <v>42</v>
       </c>
       <c r="K35">
-        <v>0.3157894736842105</v>
+        <v>0.3383458646616541</v>
       </c>
       <c r="L35">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M35">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1503,7 +1503,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1511,13 +1511,13 @@
         <v>43</v>
       </c>
       <c r="K36">
-        <v>0.2980132450331126</v>
+        <v>0.2972972972972973</v>
       </c>
       <c r="L36">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="M36">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>106</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1537,13 +1537,13 @@
         <v>44</v>
       </c>
       <c r="K37">
-        <v>0.2661870503597122</v>
+        <v>0.2949640287769784</v>
       </c>
       <c r="L37">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M37">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1555,7 +1555,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1563,13 +1563,13 @@
         <v>45</v>
       </c>
       <c r="K38">
-        <v>0.2540365984930033</v>
+        <v>0.2626480086114101</v>
       </c>
       <c r="L38">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="M38">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>693</v>
+        <v>685</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1615,13 +1615,13 @@
         <v>47</v>
       </c>
       <c r="K40">
-        <v>0.2382445141065831</v>
+        <v>0.2351097178683386</v>
       </c>
       <c r="L40">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M40">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1633,7 +1633,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1641,13 +1641,13 @@
         <v>48</v>
       </c>
       <c r="K41">
-        <v>0.1969309462915601</v>
+        <v>0.2251655629139073</v>
       </c>
       <c r="L41">
-        <v>154</v>
+        <v>34</v>
       </c>
       <c r="M41">
-        <v>154</v>
+        <v>34</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1659,7 +1659,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>628</v>
+        <v>117</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -1667,13 +1667,13 @@
         <v>49</v>
       </c>
       <c r="K42">
-        <v>0.1827814569536424</v>
+        <v>0.2185430463576159</v>
       </c>
       <c r="L42">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="M42">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1685,7 +1685,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>617</v>
+        <v>590</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -1693,13 +1693,13 @@
         <v>50</v>
       </c>
       <c r="K43">
-        <v>0.1470588235294118</v>
+        <v>0.1879795396419437</v>
       </c>
       <c r="L43">
-        <v>35</v>
+        <v>147</v>
       </c>
       <c r="M43">
-        <v>35</v>
+        <v>147</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1711,7 +1711,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>203</v>
+        <v>635</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -1719,13 +1719,13 @@
         <v>51</v>
       </c>
       <c r="K44">
-        <v>0.145985401459854</v>
+        <v>0.1678832116788321</v>
       </c>
       <c r="L44">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="M44">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -1737,7 +1737,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>351</v>
+        <v>342</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -1745,25 +1745,25 @@
         <v>52</v>
       </c>
       <c r="K45">
-        <v>0.1318181818181818</v>
+        <v>0.1432432432432433</v>
       </c>
       <c r="L45">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="M45">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="N45">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O45">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q45">
-        <v>382</v>
+        <v>317</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -1771,13 +1771,13 @@
         <v>53</v>
       </c>
       <c r="K46">
-        <v>0.1237113402061856</v>
+        <v>0.1386363636363636</v>
       </c>
       <c r="L46">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="M46">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -1789,7 +1789,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>255</v>
+        <v>379</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -1797,13 +1797,13 @@
         <v>54</v>
       </c>
       <c r="K47">
-        <v>0.1185983827493261</v>
+        <v>0.1374570446735395</v>
       </c>
       <c r="L47">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="M47">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>327</v>
+        <v>251</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -1823,13 +1823,13 @@
         <v>55</v>
       </c>
       <c r="K48">
-        <v>0.09429824561403509</v>
+        <v>0.1217712177121771</v>
       </c>
       <c r="L48">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="M48">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -1841,7 +1841,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>413</v>
+        <v>238</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -1849,13 +1849,13 @@
         <v>56</v>
       </c>
       <c r="K49">
-        <v>0.09307875894988067</v>
+        <v>0.1030701754385965</v>
       </c>
       <c r="L49">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="M49">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -1867,7 +1867,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>380</v>
+        <v>409</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -1875,25 +1875,25 @@
         <v>57</v>
       </c>
       <c r="K50">
-        <v>0.08493150684931507</v>
+        <v>0.1026252983293556</v>
       </c>
       <c r="L50">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="M50">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="N50">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O50">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q50">
-        <v>334</v>
+        <v>376</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -1901,25 +1901,25 @@
         <v>58</v>
       </c>
       <c r="K51">
-        <v>0.07736389684813753</v>
+        <v>0.08034433285509325</v>
       </c>
       <c r="L51">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M51">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="N51">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O51">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q51">
-        <v>644</v>
+        <v>641</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -1927,25 +1927,25 @@
         <v>59</v>
       </c>
       <c r="K52">
-        <v>0.07196261682242991</v>
+        <v>0.07923497267759563</v>
       </c>
       <c r="L52">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="M52">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="N52">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O52">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q52">
-        <v>993</v>
+        <v>337</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -1953,25 +1953,25 @@
         <v>60</v>
       </c>
       <c r="K53">
-        <v>0.05740740740740741</v>
+        <v>0.07383177570093458</v>
       </c>
       <c r="L53">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="M53">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="N53">
-        <v>0.9399999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="O53">
-        <v>0.06000000000000005</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P53" t="b">
         <v>1</v>
       </c>
       <c r="Q53">
-        <v>509</v>
+        <v>991</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -1979,25 +1979,25 @@
         <v>61</v>
       </c>
       <c r="K54">
-        <v>0.04152249134948097</v>
+        <v>0.03722943722943723</v>
       </c>
       <c r="L54">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="M54">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="N54">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="O54">
-        <v>0.02000000000000002</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P54" t="b">
         <v>1</v>
       </c>
       <c r="Q54">
-        <v>1108</v>
+        <v>1112</v>
       </c>
     </row>
   </sheetData>
